--- a/meta/api/BlancoRestPhpArraySample.xlsx
+++ b/meta/api/BlancoRestPhpArraySample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haino/Desktop/blancoRestPhp/meta/api/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="24240" windowHeight="13695" tabRatio="860" activeTab="1"/>
+    <workbookView xWindow="7760" yWindow="1520" windowWidth="24240" windowHeight="13700" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -26,7 +31,15 @@
     <definedName name="必須">config!$D$5:$D$6</definedName>
     <definedName name="必須フラグ">config!$C$5:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -150,26 +163,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>要求電文ID</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>応答電文ID</t>
-    <rPh sb="0" eb="2">
-      <t>オウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンブン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1949,12 +1942,26 @@
     <t>フィールド４</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>要求電文ID（POSTメソッド）</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウキュウデンブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>応答電文ID（POSTメソッド）</t>
+    <rPh sb="0" eb="4">
+      <t>オウトウデンブン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2068,16 +2075,16 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -2086,139 +2093,139 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2226,54 +2233,54 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2281,21 +2288,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2306,75 +2313,75 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2388,10 +2395,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,10 +2408,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2416,7 +2423,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2647,6 +2654,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2722,11 +2730,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAAA0001C"/>
@@ -3176,337 +3189,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="58.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" style="1"/>
-    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="5" max="5" width="18.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="120" t="s">
+        <v>162</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="120" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="109"/>
       <c r="E17" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="3"/>
       <c r="C18" s="26"/>
       <c r="D18" s="51"/>
       <c r="E18" s="49"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="3"/>
       <c r="C19" s="26"/>
       <c r="D19" s="51"/>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="3"/>
       <c r="C20" s="26"/>
       <c r="D20" s="51"/>
       <c r="E20" s="49"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="3"/>
       <c r="C21" s="26"/>
       <c r="D21" s="51"/>
       <c r="E21" s="49"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="3"/>
       <c r="C22" s="26"/>
       <c r="D22" s="51"/>
       <c r="E22" s="49"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="3"/>
       <c r="C23" s="26"/>
       <c r="D23" s="51"/>
       <c r="E23" s="49"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="3"/>
       <c r="C24" s="26"/>
       <c r="D24" s="51"/>
       <c r="E24" s="49"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="3"/>
       <c r="C25" s="26"/>
       <c r="D25" s="51"/>
       <c r="E25" s="49"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="3"/>
       <c r="C26" s="26"/>
       <c r="D26" s="51"/>
       <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="3"/>
       <c r="C27" s="26"/>
       <c r="D27" s="51"/>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="3"/>
       <c r="C28" s="26"/>
       <c r="D28" s="51"/>
       <c r="E28" s="49"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="3"/>
       <c r="C29" s="26"/>
       <c r="D29" s="51"/>
       <c r="E29" s="49"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="3"/>
       <c r="C30" s="26"/>
       <c r="D30" s="51"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="3"/>
       <c r="C31" s="26"/>
       <c r="D31" s="51"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="3"/>
       <c r="C32" s="26"/>
       <c r="D32" s="51"/>
       <c r="E32" s="49"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="3"/>
       <c r="C33" s="26"/>
       <c r="D33" s="51"/>
       <c r="E33" s="49"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="3"/>
       <c r="C34" s="26"/>
       <c r="D34" s="51"/>
       <c r="E34" s="49"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="3"/>
       <c r="C35" s="26"/>
       <c r="D35" s="51"/>
       <c r="E35" s="49"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="3"/>
       <c r="C36" s="26"/>
       <c r="D36" s="51"/>
       <c r="E36" s="49"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="3"/>
       <c r="C37" s="26"/>
       <c r="D37" s="51"/>
       <c r="E37" s="49"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="49"/>
       <c r="B38" s="3"/>
       <c r="C38" s="26"/>
       <c r="D38" s="51"/>
       <c r="E38" s="49"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="49"/>
       <c r="B39" s="3"/>
       <c r="C39" s="26"/>
       <c r="D39" s="51"/>
       <c r="E39" s="49"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="49"/>
       <c r="B40" s="3"/>
       <c r="C40" s="26"/>
       <c r="D40" s="51"/>
       <c r="E40" s="49"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="49"/>
       <c r="B41" s="3"/>
       <c r="C41" s="26"/>
       <c r="D41" s="51"/>
       <c r="E41" s="49"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
       <c r="B42" s="35"/>
       <c r="C42" s="52"/>
@@ -3518,78 +3531,85 @@
     <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>config!$C$5:$C$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="1"/>
-    <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3600,26 +3620,26 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="58"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="58"/>
@@ -3630,7 +3650,7 @@
       <c r="J7" s="58"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -3643,50 +3663,50 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="58"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -3708,9 +3728,9 @@
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B15" s="110" t="s">
         <v>0</v>
@@ -3722,30 +3742,30 @@
         <v>2</v>
       </c>
       <c r="E15" s="110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="110" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H15" s="113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="114"/>
       <c r="J15" s="113" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15" s="114"/>
       <c r="L15" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M15" s="110" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="111"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -3754,41 +3774,41 @@
       <c r="F16" s="111"/>
       <c r="G16" s="111"/>
       <c r="H16" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L16" s="28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" s="111"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="88" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="22">
         <v>0</v>
@@ -3801,19 +3821,19 @@
       <c r="L17" s="29"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <v>2</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="100" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="100"/>
@@ -3823,21 +3843,21 @@
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="79" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>3</v>
       </c>
       <c r="B19" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="90"/>
@@ -3849,18 +3869,18 @@
       <c r="L19" s="31"/>
       <c r="M19" s="12"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>4</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="D20" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="90"/>
@@ -3872,18 +3892,18 @@
       <c r="L20" s="30"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="90"/>
@@ -3895,7 +3915,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="12"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="20"/>
       <c r="C22" s="11"/>
@@ -3910,7 +3930,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="20"/>
       <c r="C23" s="11"/>
@@ -3925,7 +3945,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="20"/>
       <c r="C24" s="11"/>
@@ -3940,7 +3960,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="11"/>
@@ -3955,7 +3975,7 @@
       <c r="L25" s="31"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="20"/>
       <c r="C26" s="11"/>
@@ -3970,7 +3990,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="11"/>
@@ -3985,7 +4005,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="11"/>
@@ -4000,7 +4020,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="20"/>
       <c r="C29" s="11"/>
@@ -4015,7 +4035,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="11"/>
@@ -4030,7 +4050,7 @@
       <c r="L30" s="31"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="11"/>
@@ -4045,7 +4065,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="20"/>
       <c r="C32" s="11"/>
@@ -4060,7 +4080,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="20"/>
       <c r="C33" s="11"/>
@@ -4075,7 +4095,7 @@
       <c r="L33" s="31"/>
       <c r="M33" s="12"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="21"/>
       <c r="C34" s="14"/>
@@ -4104,12 +4124,9 @@
     <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17 F19:F34">
-      <formula1>config!$C$5:$C$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4122,12 +4139,24 @@
     <oddHeader>&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F17 F19:F34</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M40"/>
@@ -4136,54 +4165,54 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="43.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="1"/>
-    <col min="25" max="25" width="9.125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.875" style="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" style="1"/>
+    <col min="25" max="25" width="9.1640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4192,24 +4221,24 @@
       <c r="D5" s="5"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" s="34"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="34"/>
       <c r="G7" s="58"/>
@@ -4218,56 +4247,56 @@
       <c r="J7" s="58"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="35"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="98"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="34"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -4282,86 +4311,86 @@
       <c r="L14" s="61"/>
       <c r="M14" s="62"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="64" t="s">
+      <c r="D15" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="115" t="s">
         <v>123</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="115" t="s">
-        <v>125</v>
       </c>
       <c r="I15" s="116"/>
       <c r="J15" s="117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K15" s="116"/>
       <c r="L15" s="63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M15" s="118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="119"/>
       <c r="B16" s="119"/>
       <c r="C16" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="119"/>
       <c r="E16" s="119"/>
       <c r="F16" s="119"/>
       <c r="G16" s="119"/>
       <c r="H16" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="K16" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="L16" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="K16" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="67" t="s">
-        <v>133</v>
-      </c>
       <c r="M16" s="119"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="68">
         <v>1</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G17" s="71"/>
       <c r="H17" s="71"/>
@@ -4371,19 +4400,19 @@
       <c r="L17" s="71"/>
       <c r="M17" s="72"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="68">
         <v>2</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F18" s="92"/>
       <c r="G18" s="71"/>
@@ -4394,7 +4423,7 @@
       <c r="L18" s="69"/>
       <c r="M18" s="72"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="68"/>
       <c r="B19" s="73"/>
       <c r="C19" s="51"/>
@@ -4409,7 +4438,7 @@
       <c r="L19" s="69"/>
       <c r="M19" s="75"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="68"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
@@ -4424,7 +4453,7 @@
       <c r="L20" s="69"/>
       <c r="M20" s="79"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
@@ -4439,7 +4468,7 @@
       <c r="L21" s="71"/>
       <c r="M21" s="79"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="68"/>
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
@@ -4454,7 +4483,7 @@
       <c r="L22" s="69"/>
       <c r="M22" s="79"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="68"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
@@ -4469,7 +4498,7 @@
       <c r="L23" s="69"/>
       <c r="M23" s="79"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="68"/>
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
@@ -4484,7 +4513,7 @@
       <c r="L24" s="69"/>
       <c r="M24" s="79"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="68"/>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -4499,7 +4528,7 @@
       <c r="L25" s="71"/>
       <c r="M25" s="79"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="68"/>
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
@@ -4514,7 +4543,7 @@
       <c r="L26" s="69"/>
       <c r="M26" s="79"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="68"/>
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
@@ -4529,7 +4558,7 @@
       <c r="L27" s="69"/>
       <c r="M27" s="79"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="68"/>
       <c r="B28" s="76"/>
       <c r="C28" s="77"/>
@@ -4544,7 +4573,7 @@
       <c r="L28" s="69"/>
       <c r="M28" s="79"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="68"/>
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
@@ -4559,7 +4588,7 @@
       <c r="L29" s="69"/>
       <c r="M29" s="79"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
@@ -4574,7 +4603,7 @@
       <c r="L30" s="69"/>
       <c r="M30" s="79"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
@@ -4589,7 +4618,7 @@
       <c r="L31" s="71"/>
       <c r="M31" s="79"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" s="76"/>
       <c r="C32" s="77"/>
@@ -4604,7 +4633,7 @@
       <c r="L32" s="69"/>
       <c r="M32" s="79"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="68"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -4619,7 +4648,7 @@
       <c r="L33" s="69"/>
       <c r="M33" s="79"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="68"/>
       <c r="B34" s="76"/>
       <c r="C34" s="77"/>
@@ -4634,7 +4663,7 @@
       <c r="L34" s="69"/>
       <c r="M34" s="79"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="68"/>
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
@@ -4649,7 +4678,7 @@
       <c r="L35" s="69"/>
       <c r="M35" s="79"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="68"/>
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
@@ -4664,7 +4693,7 @@
       <c r="L36" s="71"/>
       <c r="M36" s="79"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="68"/>
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
@@ -4679,7 +4708,7 @@
       <c r="L37" s="69"/>
       <c r="M37" s="79"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="68"/>
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
@@ -4694,7 +4723,7 @@
       <c r="L38" s="69"/>
       <c r="M38" s="79"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="68"/>
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
@@ -4709,7 +4738,7 @@
       <c r="L39" s="71"/>
       <c r="M39" s="79"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="80"/>
       <c r="B40" s="81"/>
       <c r="C40" s="82"/>
@@ -4737,12 +4766,9 @@
     <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:F40">
-      <formula1>config!$C$5:$C$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -4751,332 +4777,344 @@
     <oddHeader>&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F17:F40</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="39"/>
+    <col min="3" max="16384" width="8.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="C16" s="39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
       <c r="C20" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C29" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C30" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="39" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="39" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="39" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="39" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B37" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="39" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="39" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="39" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C42" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="39" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B44" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C45" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B47" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="39" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C49" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="39" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="39" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C51" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="39" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C52" s="39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C56" s="39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="39" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C57" s="39" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="39" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5088,8 +5126,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
@@ -5098,37 +5136,37 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="F1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
@@ -5136,126 +5174,126 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="47" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="47" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="47" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="47"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="47"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="47"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="47"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="47"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="47"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="47"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="47"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="47"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="47"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="47"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" s="47"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" s="47"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="47"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="47"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="47"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" s="47"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="47"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="47"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="47"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="48"/>
     </row>
   </sheetData>

--- a/meta/api/BlancoRestPhpArraySample.xlsx
+++ b/meta/api/BlancoRestPhpArraySample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haino/Desktop/blancoRestPhp/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestPhp/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="1520" windowWidth="24240" windowHeight="13700" tabRatio="860"/>
+    <workbookView xWindow="4560" yWindow="1520" windowWidth="24240" windowHeight="13700" tabRatio="860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1712,10 +1712,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BlancoRestPhp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>blancoRestPhpのサンプルAPIの要求電文です。</t>
     <rPh sb="22" eb="24">
       <t>ヨウキュウ</t>
@@ -1734,10 +1730,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BlancoRestPhp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>blanco.sample.restphp</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1955,6 +1947,10 @@
       <t>オウトウデンブン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>blanco\RestPhp</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2617,6 +2613,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2654,7 +2651,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3195,8 +3191,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3248,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="26"/>
     </row>
@@ -3263,26 +3259,26 @@
       <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="120" t="s">
-        <v>162</v>
+      <c r="A8" s="107" t="s">
+        <v>160</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="120" t="s">
-        <v>163</v>
+      <c r="A9" s="107" t="s">
+        <v>161</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="26"/>
@@ -3292,7 +3288,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="26"/>
     </row>
@@ -3301,17 +3297,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -3321,7 +3317,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
@@ -3342,11 +3338,11 @@
       <c r="A17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
       <c r="E17" s="28" t="s">
         <v>75</v>
       </c>
@@ -3559,7 +3555,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3596,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -3626,7 +3622,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="58"/>
@@ -3639,7 +3635,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="58"/>
@@ -3665,11 +3661,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="58"/>
@@ -3681,7 +3677,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="58"/>
@@ -3689,11 +3685,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="58"/>
@@ -3729,50 +3725,50 @@
       <c r="R14" s="38"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="110" t="s">
+      <c r="E15" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="113" t="s">
+      <c r="G15" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="113" t="s">
+      <c r="I15" s="115"/>
+      <c r="J15" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="114"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="110" t="s">
+      <c r="M15" s="111" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="28" t="s">
         <v>83</v>
       </c>
@@ -3788,27 +3784,27 @@
       <c r="L16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="111"/>
+      <c r="M16" s="112"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H17" s="22">
         <v>0</v>
@@ -3826,14 +3822,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="77"/>
       <c r="D18" s="100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="101"/>
       <c r="G18" s="100"/>
@@ -3843,7 +3839,7 @@
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
@@ -3851,13 +3847,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="90"/>
@@ -3874,13 +3870,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="D20" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="90"/>
@@ -3897,13 +3893,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="90"/>
@@ -4161,8 +4157,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4227,7 +4223,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D6" s="34"/>
       <c r="G6" s="26"/>
@@ -4238,7 +4234,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="34"/>
       <c r="G7" s="58"/>
@@ -4260,11 +4256,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="98"/>
     </row>
@@ -4274,17 +4270,17 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="34"/>
     </row>
@@ -4296,7 +4292,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -4312,85 +4308,85 @@
       <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="D15" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="117"/>
+      <c r="L15" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="116"/>
-      <c r="L15" s="63" t="s">
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="118" t="s">
+      <c r="I16" s="66" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="66" t="s">
+      <c r="J16" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="K16" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="L16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="K16" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="120"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="68">
         <v>1</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" s="103"/>
       <c r="F17" s="92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G17" s="71"/>
       <c r="H17" s="71"/>
@@ -4405,14 +4401,14 @@
         <v>2</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E18" s="104" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="92"/>
       <c r="G18" s="71"/>
@@ -5185,7 +5181,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -5230,7 +5226,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">

--- a/meta/api/BlancoRestPhpArraySample.xlsx
+++ b/meta/api/BlancoRestPhpArraySample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestPhp/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haino/Desktop/blancoRestPhp/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1520" windowWidth="24240" windowHeight="13700" tabRatio="860" activeTab="2"/>
+    <workbookView xWindow="200" yWindow="900" windowWidth="24240" windowHeight="13700" tabRatio="860"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1829,12 +1829,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>電文の親クラス</t>
-  </si>
-  <si>
-    <t>ApiTelegram</t>
-  </si>
-  <si>
     <t>認証が不要なAPI</t>
     <rPh sb="0" eb="2">
       <t>ニンショウ</t>
@@ -1950,6 +1944,44 @@
   </si>
   <si>
     <t>blanco\RestPhp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クラス名</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
+    <t>blanco.sample.valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>名前空間</t>
+    <rPh sb="0" eb="4">
+      <t>ナマエクウカｎ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco\sample\valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>電文処理定義・継承</t>
+    <rPh sb="0" eb="2">
+      <t>デンブn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>電文定義・継承</t>
+    <rPh sb="0" eb="2">
+      <t>デンブn</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2021,7 +2053,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2058,8 +2090,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2411,6 +2467,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2419,7 +2598,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2593,8 +2772,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2651,6 +2828,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3189,10 +3388,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3214,7 +3413,7 @@
     <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3222,33 +3421,33 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
@@ -3258,51 +3457,51 @@
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="107" t="s">
-        <v>160</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="105" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="107" t="s">
-        <v>161</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="105" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B10" s="89"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>106</v>
       </c>
@@ -3312,7 +3511,7 @@
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3322,130 +3521,155 @@
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B22" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="28" t="s">
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="49"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="49"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="3"/>
       <c r="C23" s="26"/>
       <c r="D23" s="51"/>
       <c r="E23" s="49"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="3"/>
       <c r="C24" s="26"/>
       <c r="D24" s="51"/>
       <c r="E24" s="49"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="3"/>
       <c r="C25" s="26"/>
       <c r="D25" s="51"/>
       <c r="E25" s="49"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="3"/>
       <c r="C26" s="26"/>
       <c r="D26" s="51"/>
       <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="3"/>
       <c r="C27" s="26"/>
       <c r="D27" s="51"/>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="49"/>
       <c r="B28" s="3"/>
       <c r="C28" s="26"/>
       <c r="D28" s="51"/>
       <c r="E28" s="49"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="3"/>
       <c r="C29" s="26"/>
       <c r="D29" s="51"/>
       <c r="E29" s="49"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="3"/>
       <c r="C30" s="26"/>
       <c r="D30" s="51"/>
       <c r="E30" s="49"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="3"/>
       <c r="C31" s="26"/>
       <c r="D31" s="51"/>
       <c r="E31" s="49"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="3"/>
       <c r="C32" s="26"/>
@@ -3516,15 +3740,50 @@
       <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="50"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="49"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="49"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="49"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="49"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="49"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="49"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="49"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="50"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
@@ -3552,10 +3811,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3587,25 +3846,25 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3616,20 +3875,20 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="58"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
@@ -3646,7 +3905,7 @@
       <c r="J7" s="58"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -3659,279 +3918,268 @@
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
-        <v>136</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="56" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="58"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="C12" s="26"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+    </row>
+    <row r="15" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A15" s="111" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B18" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C18" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D18" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="111" t="s">
+      <c r="E18" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="111" t="s">
+      <c r="G18" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H18" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="114" t="s">
+      <c r="I18" s="113"/>
+      <c r="J18" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="33" t="s">
+      <c r="K18" s="113"/>
+      <c r="L18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M15" s="111" t="s">
+      <c r="M18" s="109" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="112"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="28" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19" s="110"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I19" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="112"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
-        <v>10</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>2</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="79" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>3</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>4</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>5</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="F20" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="29">
+        <v>10</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="99"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="12"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="90"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="22"/>
       <c r="F23" s="90"/>
       <c r="G23" s="24"/>
       <c r="H23" s="19"/>
@@ -3941,11 +4189,19 @@
       <c r="L23" s="30"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="24"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>5</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="E24" s="24"/>
       <c r="F24" s="90"/>
       <c r="G24" s="24"/>
@@ -3956,7 +4212,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="20"/>
       <c r="C25" s="11"/>
@@ -3964,14 +4220,14 @@
       <c r="E25" s="24"/>
       <c r="F25" s="90"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="20"/>
       <c r="C26" s="11"/>
@@ -3986,7 +4242,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="20"/>
       <c r="C27" s="11"/>
@@ -4001,7 +4257,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="20"/>
       <c r="C28" s="11"/>
@@ -4009,14 +4265,14 @@
       <c r="E28" s="24"/>
       <c r="F28" s="90"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="20"/>
       <c r="C29" s="11"/>
@@ -4031,7 +4287,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="12"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="20"/>
       <c r="C30" s="11"/>
@@ -4039,14 +4295,14 @@
       <c r="E30" s="24"/>
       <c r="F30" s="90"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="12"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="20"/>
       <c r="C31" s="11"/>
@@ -4061,7 +4317,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="12"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="20"/>
       <c r="C32" s="11"/>
@@ -4092,32 +4348,77 @@
       <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="15"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4126,8 +4427,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="http://tempuri.org/sample"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://tempuri.org/sample"/>
+    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -4142,7 +4443,7 @@
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F17 F19:F34</xm:sqref>
+          <xm:sqref>F20 F22:F37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4155,10 +4456,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4190,7 +4491,7 @@
     <col min="26" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
@@ -4198,17 +4499,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4217,18 +4518,18 @@
       <c r="D5" s="5"/>
       <c r="G5" s="26"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="34"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
@@ -4243,7 +4544,7 @@
       <c r="J7" s="58"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -4254,238 +4555,237 @@
       <c r="D8" s="35"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="98"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="60" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+    </row>
+    <row r="15" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="119" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="119" t="s">
+      <c r="B18" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C18" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="119" t="s">
+      <c r="D18" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="119" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="119" t="s">
+      <c r="E18" s="117" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G18" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H18" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="117"/>
-      <c r="J15" s="118" t="s">
+      <c r="I18" s="115"/>
+      <c r="J18" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="63" t="s">
+      <c r="K18" s="115"/>
+      <c r="L18" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M15" s="119" t="s">
+      <c r="M18" s="117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="120"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="65" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="66" t="s">
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I19" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="66" t="s">
+      <c r="J19" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="66" t="s">
+      <c r="K19" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="67" t="s">
+      <c r="L19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="120"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="68">
+      <c r="M19" s="118"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="68">
         <v>1</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B20" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C20" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D20" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="92" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="68">
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="68">
         <v>2</v>
       </c>
-      <c r="B18" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="104" t="s">
+      <c r="B21" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="72"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="75"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="79"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="79"/>
+      <c r="E21" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="92"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="72"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="68"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
       <c r="J22" s="69"/>
       <c r="K22" s="69"/>
       <c r="L22" s="69"/>
-      <c r="M22" s="79"/>
+      <c r="M22" s="75"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="68"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="94"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="78"/>
       <c r="H23" s="69"/>
       <c r="I23" s="69"/>
@@ -4499,14 +4799,14 @@
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="105"/>
+      <c r="E24" s="103"/>
       <c r="F24" s="94"/>
       <c r="G24" s="78"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="79"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
@@ -4514,14 +4814,14 @@
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="105"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="94"/>
       <c r="G25" s="78"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="79"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
@@ -4529,7 +4829,7 @@
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
       <c r="D26" s="78"/>
-      <c r="E26" s="105"/>
+      <c r="E26" s="103"/>
       <c r="F26" s="94"/>
       <c r="G26" s="78"/>
       <c r="H26" s="69"/>
@@ -4544,7 +4844,7 @@
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
       <c r="D27" s="78"/>
-      <c r="E27" s="105"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="94"/>
       <c r="G27" s="78"/>
       <c r="H27" s="69"/>
@@ -4559,14 +4859,14 @@
       <c r="B28" s="76"/>
       <c r="C28" s="77"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="105"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="94"/>
       <c r="G28" s="78"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
       <c r="M28" s="79"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
@@ -4574,7 +4874,7 @@
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
       <c r="D29" s="78"/>
-      <c r="E29" s="105"/>
+      <c r="E29" s="103"/>
       <c r="F29" s="94"/>
       <c r="G29" s="78"/>
       <c r="H29" s="69"/>
@@ -4589,7 +4889,7 @@
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
       <c r="D30" s="78"/>
-      <c r="E30" s="105"/>
+      <c r="E30" s="103"/>
       <c r="F30" s="94"/>
       <c r="G30" s="78"/>
       <c r="H30" s="69"/>
@@ -4604,14 +4904,14 @@
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
       <c r="D31" s="78"/>
-      <c r="E31" s="105"/>
+      <c r="E31" s="103"/>
       <c r="F31" s="94"/>
       <c r="G31" s="78"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="79"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
@@ -4619,7 +4919,7 @@
       <c r="B32" s="76"/>
       <c r="C32" s="77"/>
       <c r="D32" s="78"/>
-      <c r="E32" s="105"/>
+      <c r="E32" s="103"/>
       <c r="F32" s="94"/>
       <c r="G32" s="78"/>
       <c r="H32" s="69"/>
@@ -4634,7 +4934,7 @@
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="D33" s="78"/>
-      <c r="E33" s="105"/>
+      <c r="E33" s="103"/>
       <c r="F33" s="94"/>
       <c r="G33" s="78"/>
       <c r="H33" s="69"/>
@@ -4649,14 +4949,14 @@
       <c r="B34" s="76"/>
       <c r="C34" s="77"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="105"/>
+      <c r="E34" s="103"/>
       <c r="F34" s="94"/>
       <c r="G34" s="78"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
       <c r="M34" s="79"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -4664,7 +4964,7 @@
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="78"/>
-      <c r="E35" s="100"/>
+      <c r="E35" s="103"/>
       <c r="F35" s="94"/>
       <c r="G35" s="78"/>
       <c r="H35" s="69"/>
@@ -4679,14 +4979,14 @@
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
       <c r="D36" s="78"/>
-      <c r="E36" s="100"/>
+      <c r="E36" s="103"/>
       <c r="F36" s="94"/>
       <c r="G36" s="78"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="79"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
@@ -4694,7 +4994,7 @@
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
       <c r="D37" s="78"/>
-      <c r="E37" s="100"/>
+      <c r="E37" s="103"/>
       <c r="F37" s="94"/>
       <c r="G37" s="78"/>
       <c r="H37" s="69"/>
@@ -4709,7 +5009,7 @@
       <c r="B38" s="76"/>
       <c r="C38" s="77"/>
       <c r="D38" s="78"/>
-      <c r="E38" s="100"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="94"/>
       <c r="G38" s="78"/>
       <c r="H38" s="69"/>
@@ -4724,7 +5024,7 @@
       <c r="B39" s="76"/>
       <c r="C39" s="77"/>
       <c r="D39" s="78"/>
-      <c r="E39" s="100"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="94"/>
       <c r="G39" s="78"/>
       <c r="H39" s="71"/>
@@ -4735,31 +5035,76 @@
       <c r="M39" s="79"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="80"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="85"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="79"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="68"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="79"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="68"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="79"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -4780,7 +5125,7 @@
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F17:F40</xm:sqref>
+          <xm:sqref>F20:F43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/meta/api/BlancoRestPhpArraySample.xlsx
+++ b/meta/api/BlancoRestPhpArraySample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haino/Desktop/blancoRestPhp/meta/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestPhp/meta/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="900" windowWidth="24240" windowHeight="13700" tabRatio="860"/>
+    <workbookView xWindow="200" yWindow="900" windowWidth="24240" windowHeight="13700" tabRatio="860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1905,10 +1905,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>field@hoge</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>field(hoge)abc</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1964,10 +1960,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>blanco\sample\valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>電文処理定義・継承</t>
     <rPh sb="0" eb="2">
       <t>デンブn</t>
@@ -1982,6 +1974,30 @@
     <rPh sb="0" eb="2">
       <t>デンブn</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApiBase</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco.sample.valueobjects</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\blanco\sample\valueobjects</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\blanco\restphp\common</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>field@hoge2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>\blanco\RestPhp</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2791,43 +2807,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2850,6 +2829,43 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -3390,8 +3406,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3459,7 +3475,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>139</v>
@@ -3468,7 +3484,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>140</v>
@@ -3496,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
@@ -3527,59 +3543,59 @@
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
     </row>
-    <row r="16" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
+    <row r="16" spans="1:10" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
+    <row r="17" spans="1:10" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="127" t="s">
+    <row r="18" spans="1:10" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129" t="s">
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+    </row>
+    <row r="19" spans="1:10" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
-    </row>
-    <row r="19" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -3597,11 +3613,11 @@
       <c r="A22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="122"/>
       <c r="E22" s="28" t="s">
         <v>75</v>
       </c>
@@ -3814,7 +3830,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3924,7 +3940,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="56" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="58"/>
@@ -3946,59 +3962,59 @@
       <c r="A11" s="6"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+    <row r="12" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125" t="s">
+    <row r="13" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129" t="s">
+    <row r="14" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+    </row>
+    <row r="15" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-    </row>
-    <row r="15" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
@@ -4026,50 +4042,50 @@
       <c r="R17" s="38"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="112" t="s">
+      <c r="I18" s="127"/>
+      <c r="J18" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="113"/>
+      <c r="K18" s="127"/>
       <c r="L18" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="M18" s="109" t="s">
+      <c r="M18" s="123" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A19" s="110"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="28" t="s">
         <v>83</v>
       </c>
@@ -4085,7 +4101,7 @@
       <c r="L19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="124"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
@@ -4148,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>113</v>
@@ -4171,10 +4187,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>113</v>
@@ -4194,10 +4210,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>113</v>
@@ -4428,7 +4444,6 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" display="http://tempuri.org/sample"/>
-    <hyperlink ref="B22" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
@@ -4458,8 +4473,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4561,7 +4576,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="56" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D9" s="34"/>
     </row>
@@ -4578,59 +4593,59 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+    <row r="12" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" s="124"/>
-      <c r="C13" s="125" t="s">
+    <row r="13" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129" t="s">
+    <row r="14" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+    </row>
+    <row r="15" spans="1:11" s="109" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-    </row>
-    <row r="15" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
@@ -4653,52 +4668,52 @@
       <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="131" t="s">
         <v>118</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="131" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="114" t="s">
+      <c r="H18" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116" t="s">
+      <c r="I18" s="129"/>
+      <c r="J18" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="115"/>
+      <c r="K18" s="129"/>
       <c r="L18" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="M18" s="117" t="s">
+      <c r="M18" s="131" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="118"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
       <c r="H19" s="66" t="s">
         <v>125</v>
       </c>
@@ -4714,7 +4729,7 @@
       <c r="L19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="118"/>
+      <c r="M19" s="132"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="68">
